--- a/Roles.xlsx
+++ b/Roles.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alvariainc-my.sharepoint.com/personal/martin_connolly_aspect_com/Documents/Documents/Personal/College/Letterkenny 2021/Modules/DevOps/CA1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CollegeWorkingFolder\DevOps\CA1\DevOps-RACVIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="270" documentId="11_F25DC773A252ABDACC10484DB91C4B7A5ADE58F3" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{35898FB3-0760-45A7-B534-5FA6B6197FA3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{833C7153-3FA5-4459-BBE6-4EE59C823A8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="225" windowWidth="23565" windowHeight="14820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="57">
   <si>
     <t>Gather Requirements</t>
   </si>
@@ -286,7 +286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -301,6 +301,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1148,11 +1149,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{642AA05F-B577-4659-A384-7FE4BCC2A291}">
-  <dimension ref="A2:L29"/>
+  <dimension ref="A2:BF29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
+      <selection pane="bottomLeft" activeCell="P39" sqref="P39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1170,7 +1171,7 @@
     <col min="11" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:58" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B2" s="5"/>
       <c r="C2" s="4" t="s">
         <v>25</v>
@@ -1194,7 +1195,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:58" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
@@ -1207,11 +1208,56 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="6"/>
-      <c r="L3" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="10"/>
+      <c r="AD3" s="10"/>
+      <c r="AE3" s="10"/>
+      <c r="AF3" s="10"/>
+      <c r="AG3" s="10"/>
+      <c r="AH3" s="10"/>
+      <c r="AI3" s="10"/>
+      <c r="AJ3" s="10"/>
+      <c r="AK3" s="10"/>
+      <c r="AL3" s="10"/>
+      <c r="AM3" s="10"/>
+      <c r="AN3" s="10"/>
+      <c r="AO3" s="10"/>
+      <c r="AP3" s="10"/>
+      <c r="AQ3" s="10"/>
+      <c r="AR3" s="10"/>
+      <c r="AS3" s="10"/>
+      <c r="AT3" s="10"/>
+      <c r="AU3" s="10"/>
+      <c r="AV3" s="10"/>
+      <c r="AW3" s="10"/>
+      <c r="AX3" s="10"/>
+      <c r="AY3" s="10"/>
+      <c r="AZ3" s="10"/>
+      <c r="BA3" s="10"/>
+      <c r="BB3" s="10"/>
+      <c r="BC3" s="10"/>
+      <c r="BD3" s="10"/>
+      <c r="BE3" s="10"/>
+      <c r="BF3" s="10"/>
+    </row>
+    <row r="4" spans="1:58" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
@@ -1230,11 +1276,56 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
-      <c r="L4" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10"/>
+      <c r="AA4" s="10"/>
+      <c r="AB4" s="10"/>
+      <c r="AC4" s="10"/>
+      <c r="AD4" s="10"/>
+      <c r="AE4" s="10"/>
+      <c r="AF4" s="10"/>
+      <c r="AG4" s="10"/>
+      <c r="AH4" s="10"/>
+      <c r="AI4" s="10"/>
+      <c r="AJ4" s="10"/>
+      <c r="AK4" s="10"/>
+      <c r="AL4" s="10"/>
+      <c r="AM4" s="10"/>
+      <c r="AN4" s="10"/>
+      <c r="AO4" s="10"/>
+      <c r="AP4" s="10"/>
+      <c r="AQ4" s="10"/>
+      <c r="AR4" s="10"/>
+      <c r="AS4" s="10"/>
+      <c r="AT4" s="10"/>
+      <c r="AU4" s="10"/>
+      <c r="AV4" s="10"/>
+      <c r="AW4" s="10"/>
+      <c r="AX4" s="10"/>
+      <c r="AY4" s="10"/>
+      <c r="AZ4" s="10"/>
+      <c r="BA4" s="10"/>
+      <c r="BB4" s="10"/>
+      <c r="BC4" s="10"/>
+      <c r="BD4" s="10"/>
+      <c r="BE4" s="10"/>
+      <c r="BF4" s="10"/>
+    </row>
+    <row r="5" spans="1:58" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
         <v>19</v>
       </c>
@@ -1255,11 +1346,56 @@
         <v>35</v>
       </c>
       <c r="I5" s="3"/>
-      <c r="L5" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="10"/>
+      <c r="AA5" s="10"/>
+      <c r="AB5" s="10"/>
+      <c r="AC5" s="10"/>
+      <c r="AD5" s="10"/>
+      <c r="AE5" s="10"/>
+      <c r="AF5" s="10"/>
+      <c r="AG5" s="10"/>
+      <c r="AH5" s="10"/>
+      <c r="AI5" s="10"/>
+      <c r="AJ5" s="10"/>
+      <c r="AK5" s="10"/>
+      <c r="AL5" s="10"/>
+      <c r="AM5" s="10"/>
+      <c r="AN5" s="10"/>
+      <c r="AO5" s="10"/>
+      <c r="AP5" s="10"/>
+      <c r="AQ5" s="10"/>
+      <c r="AR5" s="10"/>
+      <c r="AS5" s="10"/>
+      <c r="AT5" s="10"/>
+      <c r="AU5" s="10"/>
+      <c r="AV5" s="10"/>
+      <c r="AW5" s="10"/>
+      <c r="AX5" s="10"/>
+      <c r="AY5" s="10"/>
+      <c r="AZ5" s="10"/>
+      <c r="BA5" s="10"/>
+      <c r="BB5" s="10"/>
+      <c r="BC5" s="10"/>
+      <c r="BD5" s="10"/>
+      <c r="BE5" s="10"/>
+      <c r="BF5" s="10"/>
+    </row>
+    <row r="6" spans="1:58" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
@@ -1280,11 +1416,56 @@
         <v>34</v>
       </c>
       <c r="I6" s="3"/>
-      <c r="L6" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="10"/>
+      <c r="AB6" s="10"/>
+      <c r="AC6" s="10"/>
+      <c r="AD6" s="10"/>
+      <c r="AE6" s="10"/>
+      <c r="AF6" s="10"/>
+      <c r="AG6" s="10"/>
+      <c r="AH6" s="10"/>
+      <c r="AI6" s="10"/>
+      <c r="AJ6" s="10"/>
+      <c r="AK6" s="10"/>
+      <c r="AL6" s="10"/>
+      <c r="AM6" s="10"/>
+      <c r="AN6" s="10"/>
+      <c r="AO6" s="10"/>
+      <c r="AP6" s="10"/>
+      <c r="AQ6" s="10"/>
+      <c r="AR6" s="10"/>
+      <c r="AS6" s="10"/>
+      <c r="AT6" s="10"/>
+      <c r="AU6" s="10"/>
+      <c r="AV6" s="10"/>
+      <c r="AW6" s="10"/>
+      <c r="AX6" s="10"/>
+      <c r="AY6" s="10"/>
+      <c r="AZ6" s="10"/>
+      <c r="BA6" s="10"/>
+      <c r="BB6" s="10"/>
+      <c r="BC6" s="10"/>
+      <c r="BD6" s="10"/>
+      <c r="BE6" s="10"/>
+      <c r="BF6" s="10"/>
+    </row>
+    <row r="7" spans="1:58" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="1" t="s">
         <v>2</v>
@@ -1297,8 +1478,56 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="6"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="10"/>
+      <c r="AA7" s="10"/>
+      <c r="AB7" s="10"/>
+      <c r="AC7" s="10"/>
+      <c r="AD7" s="10"/>
+      <c r="AE7" s="10"/>
+      <c r="AF7" s="10"/>
+      <c r="AG7" s="10"/>
+      <c r="AH7" s="10"/>
+      <c r="AI7" s="10"/>
+      <c r="AJ7" s="10"/>
+      <c r="AK7" s="10"/>
+      <c r="AL7" s="10"/>
+      <c r="AM7" s="10"/>
+      <c r="AN7" s="10"/>
+      <c r="AO7" s="10"/>
+      <c r="AP7" s="10"/>
+      <c r="AQ7" s="10"/>
+      <c r="AR7" s="10"/>
+      <c r="AS7" s="10"/>
+      <c r="AT7" s="10"/>
+      <c r="AU7" s="10"/>
+      <c r="AV7" s="10"/>
+      <c r="AW7" s="10"/>
+      <c r="AX7" s="10"/>
+      <c r="AY7" s="10"/>
+      <c r="AZ7" s="10"/>
+      <c r="BA7" s="10"/>
+      <c r="BB7" s="10"/>
+      <c r="BC7" s="10"/>
+      <c r="BD7" s="10"/>
+      <c r="BE7" s="10"/>
+      <c r="BF7" s="10"/>
+    </row>
+    <row r="8" spans="1:58" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
@@ -1319,8 +1548,56 @@
         <v>45</v>
       </c>
       <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="10"/>
+      <c r="AA8" s="10"/>
+      <c r="AB8" s="10"/>
+      <c r="AC8" s="10"/>
+      <c r="AD8" s="10"/>
+      <c r="AE8" s="10"/>
+      <c r="AF8" s="10"/>
+      <c r="AG8" s="10"/>
+      <c r="AH8" s="10"/>
+      <c r="AI8" s="10"/>
+      <c r="AJ8" s="10"/>
+      <c r="AK8" s="10"/>
+      <c r="AL8" s="10"/>
+      <c r="AM8" s="10"/>
+      <c r="AN8" s="10"/>
+      <c r="AO8" s="10"/>
+      <c r="AP8" s="10"/>
+      <c r="AQ8" s="10"/>
+      <c r="AR8" s="10"/>
+      <c r="AS8" s="10"/>
+      <c r="AT8" s="10"/>
+      <c r="AU8" s="10"/>
+      <c r="AV8" s="10"/>
+      <c r="AW8" s="10"/>
+      <c r="AX8" s="10"/>
+      <c r="AY8" s="10"/>
+      <c r="AZ8" s="10"/>
+      <c r="BA8" s="10"/>
+      <c r="BB8" s="10"/>
+      <c r="BC8" s="10"/>
+      <c r="BD8" s="10"/>
+      <c r="BE8" s="10"/>
+      <c r="BF8" s="10"/>
+    </row>
+    <row r="9" spans="1:58" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
@@ -1339,8 +1616,56 @@
         <v>35</v>
       </c>
       <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="10"/>
+      <c r="AA9" s="10"/>
+      <c r="AB9" s="10"/>
+      <c r="AC9" s="10"/>
+      <c r="AD9" s="10"/>
+      <c r="AE9" s="10"/>
+      <c r="AF9" s="10"/>
+      <c r="AG9" s="10"/>
+      <c r="AH9" s="10"/>
+      <c r="AI9" s="10"/>
+      <c r="AJ9" s="10"/>
+      <c r="AK9" s="10"/>
+      <c r="AL9" s="10"/>
+      <c r="AM9" s="10"/>
+      <c r="AN9" s="10"/>
+      <c r="AO9" s="10"/>
+      <c r="AP9" s="10"/>
+      <c r="AQ9" s="10"/>
+      <c r="AR9" s="10"/>
+      <c r="AS9" s="10"/>
+      <c r="AT9" s="10"/>
+      <c r="AU9" s="10"/>
+      <c r="AV9" s="10"/>
+      <c r="AW9" s="10"/>
+      <c r="AX9" s="10"/>
+      <c r="AY9" s="10"/>
+      <c r="AZ9" s="10"/>
+      <c r="BA9" s="10"/>
+      <c r="BB9" s="10"/>
+      <c r="BC9" s="10"/>
+      <c r="BD9" s="10"/>
+      <c r="BE9" s="10"/>
+      <c r="BF9" s="10"/>
+    </row>
+    <row r="10" spans="1:58" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
         <v>6</v>
       </c>
@@ -1359,8 +1684,56 @@
         <v>35</v>
       </c>
       <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="10"/>
+      <c r="AA10" s="10"/>
+      <c r="AB10" s="10"/>
+      <c r="AC10" s="10"/>
+      <c r="AD10" s="10"/>
+      <c r="AE10" s="10"/>
+      <c r="AF10" s="10"/>
+      <c r="AG10" s="10"/>
+      <c r="AH10" s="10"/>
+      <c r="AI10" s="10"/>
+      <c r="AJ10" s="10"/>
+      <c r="AK10" s="10"/>
+      <c r="AL10" s="10"/>
+      <c r="AM10" s="10"/>
+      <c r="AN10" s="10"/>
+      <c r="AO10" s="10"/>
+      <c r="AP10" s="10"/>
+      <c r="AQ10" s="10"/>
+      <c r="AR10" s="10"/>
+      <c r="AS10" s="10"/>
+      <c r="AT10" s="10"/>
+      <c r="AU10" s="10"/>
+      <c r="AV10" s="10"/>
+      <c r="AW10" s="10"/>
+      <c r="AX10" s="10"/>
+      <c r="AY10" s="10"/>
+      <c r="AZ10" s="10"/>
+      <c r="BA10" s="10"/>
+      <c r="BB10" s="10"/>
+      <c r="BC10" s="10"/>
+      <c r="BD10" s="10"/>
+      <c r="BE10" s="10"/>
+      <c r="BF10" s="10"/>
+    </row>
+    <row r="11" spans="1:58" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="1" t="s">
         <v>7</v>
@@ -1373,8 +1746,56 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="6"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="10"/>
+      <c r="AA11" s="10"/>
+      <c r="AB11" s="10"/>
+      <c r="AC11" s="10"/>
+      <c r="AD11" s="10"/>
+      <c r="AE11" s="10"/>
+      <c r="AF11" s="10"/>
+      <c r="AG11" s="10"/>
+      <c r="AH11" s="10"/>
+      <c r="AI11" s="10"/>
+      <c r="AJ11" s="10"/>
+      <c r="AK11" s="10"/>
+      <c r="AL11" s="10"/>
+      <c r="AM11" s="10"/>
+      <c r="AN11" s="10"/>
+      <c r="AO11" s="10"/>
+      <c r="AP11" s="10"/>
+      <c r="AQ11" s="10"/>
+      <c r="AR11" s="10"/>
+      <c r="AS11" s="10"/>
+      <c r="AT11" s="10"/>
+      <c r="AU11" s="10"/>
+      <c r="AV11" s="10"/>
+      <c r="AW11" s="10"/>
+      <c r="AX11" s="10"/>
+      <c r="AY11" s="10"/>
+      <c r="AZ11" s="10"/>
+      <c r="BA11" s="10"/>
+      <c r="BB11" s="10"/>
+      <c r="BC11" s="10"/>
+      <c r="BD11" s="10"/>
+      <c r="BE11" s="10"/>
+      <c r="BF11" s="10"/>
+    </row>
+    <row r="12" spans="1:58" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
         <v>8</v>
       </c>
@@ -1393,8 +1814,56 @@
         <v>35</v>
       </c>
       <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="10"/>
+      <c r="Z12" s="10"/>
+      <c r="AA12" s="10"/>
+      <c r="AB12" s="10"/>
+      <c r="AC12" s="10"/>
+      <c r="AD12" s="10"/>
+      <c r="AE12" s="10"/>
+      <c r="AF12" s="10"/>
+      <c r="AG12" s="10"/>
+      <c r="AH12" s="10"/>
+      <c r="AI12" s="10"/>
+      <c r="AJ12" s="10"/>
+      <c r="AK12" s="10"/>
+      <c r="AL12" s="10"/>
+      <c r="AM12" s="10"/>
+      <c r="AN12" s="10"/>
+      <c r="AO12" s="10"/>
+      <c r="AP12" s="10"/>
+      <c r="AQ12" s="10"/>
+      <c r="AR12" s="10"/>
+      <c r="AS12" s="10"/>
+      <c r="AT12" s="10"/>
+      <c r="AU12" s="10"/>
+      <c r="AV12" s="10"/>
+      <c r="AW12" s="10"/>
+      <c r="AX12" s="10"/>
+      <c r="AY12" s="10"/>
+      <c r="AZ12" s="10"/>
+      <c r="BA12" s="10"/>
+      <c r="BB12" s="10"/>
+      <c r="BC12" s="10"/>
+      <c r="BD12" s="10"/>
+      <c r="BE12" s="10"/>
+      <c r="BF12" s="10"/>
+    </row>
+    <row r="13" spans="1:58" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
         <v>9</v>
       </c>
@@ -1415,8 +1884,56 @@
       <c r="I13" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="10"/>
+      <c r="AA13" s="10"/>
+      <c r="AB13" s="10"/>
+      <c r="AC13" s="10"/>
+      <c r="AD13" s="10"/>
+      <c r="AE13" s="10"/>
+      <c r="AF13" s="10"/>
+      <c r="AG13" s="10"/>
+      <c r="AH13" s="10"/>
+      <c r="AI13" s="10"/>
+      <c r="AJ13" s="10"/>
+      <c r="AK13" s="10"/>
+      <c r="AL13" s="10"/>
+      <c r="AM13" s="10"/>
+      <c r="AN13" s="10"/>
+      <c r="AO13" s="10"/>
+      <c r="AP13" s="10"/>
+      <c r="AQ13" s="10"/>
+      <c r="AR13" s="10"/>
+      <c r="AS13" s="10"/>
+      <c r="AT13" s="10"/>
+      <c r="AU13" s="10"/>
+      <c r="AV13" s="10"/>
+      <c r="AW13" s="10"/>
+      <c r="AX13" s="10"/>
+      <c r="AY13" s="10"/>
+      <c r="AZ13" s="10"/>
+      <c r="BA13" s="10"/>
+      <c r="BB13" s="10"/>
+      <c r="BC13" s="10"/>
+      <c r="BD13" s="10"/>
+      <c r="BE13" s="10"/>
+      <c r="BF13" s="10"/>
+    </row>
+    <row r="14" spans="1:58" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
       <c r="B14" s="1" t="s">
         <v>10</v>
@@ -1429,8 +1946,56 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="6"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="10"/>
+      <c r="Z14" s="10"/>
+      <c r="AA14" s="10"/>
+      <c r="AB14" s="10"/>
+      <c r="AC14" s="10"/>
+      <c r="AD14" s="10"/>
+      <c r="AE14" s="10"/>
+      <c r="AF14" s="10"/>
+      <c r="AG14" s="10"/>
+      <c r="AH14" s="10"/>
+      <c r="AI14" s="10"/>
+      <c r="AJ14" s="10"/>
+      <c r="AK14" s="10"/>
+      <c r="AL14" s="10"/>
+      <c r="AM14" s="10"/>
+      <c r="AN14" s="10"/>
+      <c r="AO14" s="10"/>
+      <c r="AP14" s="10"/>
+      <c r="AQ14" s="10"/>
+      <c r="AR14" s="10"/>
+      <c r="AS14" s="10"/>
+      <c r="AT14" s="10"/>
+      <c r="AU14" s="10"/>
+      <c r="AV14" s="10"/>
+      <c r="AW14" s="10"/>
+      <c r="AX14" s="10"/>
+      <c r="AY14" s="10"/>
+      <c r="AZ14" s="10"/>
+      <c r="BA14" s="10"/>
+      <c r="BB14" s="10"/>
+      <c r="BC14" s="10"/>
+      <c r="BD14" s="10"/>
+      <c r="BE14" s="10"/>
+      <c r="BF14" s="10"/>
+    </row>
+    <row r="15" spans="1:58" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
         <v>11</v>
       </c>
@@ -1451,8 +2016,56 @@
         <v>51</v>
       </c>
       <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="10"/>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="10"/>
+      <c r="Z15" s="10"/>
+      <c r="AA15" s="10"/>
+      <c r="AB15" s="10"/>
+      <c r="AC15" s="10"/>
+      <c r="AD15" s="10"/>
+      <c r="AE15" s="10"/>
+      <c r="AF15" s="10"/>
+      <c r="AG15" s="10"/>
+      <c r="AH15" s="10"/>
+      <c r="AI15" s="10"/>
+      <c r="AJ15" s="10"/>
+      <c r="AK15" s="10"/>
+      <c r="AL15" s="10"/>
+      <c r="AM15" s="10"/>
+      <c r="AN15" s="10"/>
+      <c r="AO15" s="10"/>
+      <c r="AP15" s="10"/>
+      <c r="AQ15" s="10"/>
+      <c r="AR15" s="10"/>
+      <c r="AS15" s="10"/>
+      <c r="AT15" s="10"/>
+      <c r="AU15" s="10"/>
+      <c r="AV15" s="10"/>
+      <c r="AW15" s="10"/>
+      <c r="AX15" s="10"/>
+      <c r="AY15" s="10"/>
+      <c r="AZ15" s="10"/>
+      <c r="BA15" s="10"/>
+      <c r="BB15" s="10"/>
+      <c r="BC15" s="10"/>
+      <c r="BD15" s="10"/>
+      <c r="BE15" s="10"/>
+      <c r="BF15" s="10"/>
+    </row>
+    <row r="16" spans="1:58" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
         <v>56</v>
       </c>
@@ -1473,8 +2086,56 @@
         <v>51</v>
       </c>
       <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="10"/>
+      <c r="Z16" s="10"/>
+      <c r="AA16" s="10"/>
+      <c r="AB16" s="10"/>
+      <c r="AC16" s="10"/>
+      <c r="AD16" s="10"/>
+      <c r="AE16" s="10"/>
+      <c r="AF16" s="10"/>
+      <c r="AG16" s="10"/>
+      <c r="AH16" s="10"/>
+      <c r="AI16" s="10"/>
+      <c r="AJ16" s="10"/>
+      <c r="AK16" s="10"/>
+      <c r="AL16" s="10"/>
+      <c r="AM16" s="10"/>
+      <c r="AN16" s="10"/>
+      <c r="AO16" s="10"/>
+      <c r="AP16" s="10"/>
+      <c r="AQ16" s="10"/>
+      <c r="AR16" s="10"/>
+      <c r="AS16" s="10"/>
+      <c r="AT16" s="10"/>
+      <c r="AU16" s="10"/>
+      <c r="AV16" s="10"/>
+      <c r="AW16" s="10"/>
+      <c r="AX16" s="10"/>
+      <c r="AY16" s="10"/>
+      <c r="AZ16" s="10"/>
+      <c r="BA16" s="10"/>
+      <c r="BB16" s="10"/>
+      <c r="BC16" s="10"/>
+      <c r="BD16" s="10"/>
+      <c r="BE16" s="10"/>
+      <c r="BF16" s="10"/>
+    </row>
+    <row r="17" spans="1:58" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
         <v>14</v>
       </c>
@@ -1495,8 +2156,56 @@
         <v>51</v>
       </c>
       <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="10"/>
+      <c r="X17" s="10"/>
+      <c r="Y17" s="10"/>
+      <c r="Z17" s="10"/>
+      <c r="AA17" s="10"/>
+      <c r="AB17" s="10"/>
+      <c r="AC17" s="10"/>
+      <c r="AD17" s="10"/>
+      <c r="AE17" s="10"/>
+      <c r="AF17" s="10"/>
+      <c r="AG17" s="10"/>
+      <c r="AH17" s="10"/>
+      <c r="AI17" s="10"/>
+      <c r="AJ17" s="10"/>
+      <c r="AK17" s="10"/>
+      <c r="AL17" s="10"/>
+      <c r="AM17" s="10"/>
+      <c r="AN17" s="10"/>
+      <c r="AO17" s="10"/>
+      <c r="AP17" s="10"/>
+      <c r="AQ17" s="10"/>
+      <c r="AR17" s="10"/>
+      <c r="AS17" s="10"/>
+      <c r="AT17" s="10"/>
+      <c r="AU17" s="10"/>
+      <c r="AV17" s="10"/>
+      <c r="AW17" s="10"/>
+      <c r="AX17" s="10"/>
+      <c r="AY17" s="10"/>
+      <c r="AZ17" s="10"/>
+      <c r="BA17" s="10"/>
+      <c r="BB17" s="10"/>
+      <c r="BC17" s="10"/>
+      <c r="BD17" s="10"/>
+      <c r="BE17" s="10"/>
+      <c r="BF17" s="10"/>
+    </row>
+    <row r="18" spans="1:58" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
       <c r="B18" s="1" t="s">
         <v>12</v>
@@ -1509,8 +2218,56 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="6"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="10"/>
+      <c r="Z18" s="10"/>
+      <c r="AA18" s="10"/>
+      <c r="AB18" s="10"/>
+      <c r="AC18" s="10"/>
+      <c r="AD18" s="10"/>
+      <c r="AE18" s="10"/>
+      <c r="AF18" s="10"/>
+      <c r="AG18" s="10"/>
+      <c r="AH18" s="10"/>
+      <c r="AI18" s="10"/>
+      <c r="AJ18" s="10"/>
+      <c r="AK18" s="10"/>
+      <c r="AL18" s="10"/>
+      <c r="AM18" s="10"/>
+      <c r="AN18" s="10"/>
+      <c r="AO18" s="10"/>
+      <c r="AP18" s="10"/>
+      <c r="AQ18" s="10"/>
+      <c r="AR18" s="10"/>
+      <c r="AS18" s="10"/>
+      <c r="AT18" s="10"/>
+      <c r="AU18" s="10"/>
+      <c r="AV18" s="10"/>
+      <c r="AW18" s="10"/>
+      <c r="AX18" s="10"/>
+      <c r="AY18" s="10"/>
+      <c r="AZ18" s="10"/>
+      <c r="BA18" s="10"/>
+      <c r="BB18" s="10"/>
+      <c r="BC18" s="10"/>
+      <c r="BD18" s="10"/>
+      <c r="BE18" s="10"/>
+      <c r="BF18" s="10"/>
+    </row>
+    <row r="19" spans="1:58" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
         <v>13</v>
       </c>
@@ -1531,8 +2288,56 @@
       <c r="I19" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="10"/>
+      <c r="Z19" s="10"/>
+      <c r="AA19" s="10"/>
+      <c r="AB19" s="10"/>
+      <c r="AC19" s="10"/>
+      <c r="AD19" s="10"/>
+      <c r="AE19" s="10"/>
+      <c r="AF19" s="10"/>
+      <c r="AG19" s="10"/>
+      <c r="AH19" s="10"/>
+      <c r="AI19" s="10"/>
+      <c r="AJ19" s="10"/>
+      <c r="AK19" s="10"/>
+      <c r="AL19" s="10"/>
+      <c r="AM19" s="10"/>
+      <c r="AN19" s="10"/>
+      <c r="AO19" s="10"/>
+      <c r="AP19" s="10"/>
+      <c r="AQ19" s="10"/>
+      <c r="AR19" s="10"/>
+      <c r="AS19" s="10"/>
+      <c r="AT19" s="10"/>
+      <c r="AU19" s="10"/>
+      <c r="AV19" s="10"/>
+      <c r="AW19" s="10"/>
+      <c r="AX19" s="10"/>
+      <c r="AY19" s="10"/>
+      <c r="AZ19" s="10"/>
+      <c r="BA19" s="10"/>
+      <c r="BB19" s="10"/>
+      <c r="BC19" s="10"/>
+      <c r="BD19" s="10"/>
+      <c r="BE19" s="10"/>
+      <c r="BF19" s="10"/>
+    </row>
+    <row r="20" spans="1:58" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
         <v>20</v>
       </c>
@@ -1555,8 +2360,56 @@
       <c r="I20" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="10"/>
+      <c r="Y20" s="10"/>
+      <c r="Z20" s="10"/>
+      <c r="AA20" s="10"/>
+      <c r="AB20" s="10"/>
+      <c r="AC20" s="10"/>
+      <c r="AD20" s="10"/>
+      <c r="AE20" s="10"/>
+      <c r="AF20" s="10"/>
+      <c r="AG20" s="10"/>
+      <c r="AH20" s="10"/>
+      <c r="AI20" s="10"/>
+      <c r="AJ20" s="10"/>
+      <c r="AK20" s="10"/>
+      <c r="AL20" s="10"/>
+      <c r="AM20" s="10"/>
+      <c r="AN20" s="10"/>
+      <c r="AO20" s="10"/>
+      <c r="AP20" s="10"/>
+      <c r="AQ20" s="10"/>
+      <c r="AR20" s="10"/>
+      <c r="AS20" s="10"/>
+      <c r="AT20" s="10"/>
+      <c r="AU20" s="10"/>
+      <c r="AV20" s="10"/>
+      <c r="AW20" s="10"/>
+      <c r="AX20" s="10"/>
+      <c r="AY20" s="10"/>
+      <c r="AZ20" s="10"/>
+      <c r="BA20" s="10"/>
+      <c r="BB20" s="10"/>
+      <c r="BC20" s="10"/>
+      <c r="BD20" s="10"/>
+      <c r="BE20" s="10"/>
+      <c r="BF20" s="10"/>
+    </row>
+    <row r="21" spans="1:58" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
       <c r="B21" s="1" t="s">
         <v>15</v>
@@ -1569,8 +2422,56 @@
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="6"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="10"/>
+      <c r="X21" s="10"/>
+      <c r="Y21" s="10"/>
+      <c r="Z21" s="10"/>
+      <c r="AA21" s="10"/>
+      <c r="AB21" s="10"/>
+      <c r="AC21" s="10"/>
+      <c r="AD21" s="10"/>
+      <c r="AE21" s="10"/>
+      <c r="AF21" s="10"/>
+      <c r="AG21" s="10"/>
+      <c r="AH21" s="10"/>
+      <c r="AI21" s="10"/>
+      <c r="AJ21" s="10"/>
+      <c r="AK21" s="10"/>
+      <c r="AL21" s="10"/>
+      <c r="AM21" s="10"/>
+      <c r="AN21" s="10"/>
+      <c r="AO21" s="10"/>
+      <c r="AP21" s="10"/>
+      <c r="AQ21" s="10"/>
+      <c r="AR21" s="10"/>
+      <c r="AS21" s="10"/>
+      <c r="AT21" s="10"/>
+      <c r="AU21" s="10"/>
+      <c r="AV21" s="10"/>
+      <c r="AW21" s="10"/>
+      <c r="AX21" s="10"/>
+      <c r="AY21" s="10"/>
+      <c r="AZ21" s="10"/>
+      <c r="BA21" s="10"/>
+      <c r="BB21" s="10"/>
+      <c r="BC21" s="10"/>
+      <c r="BD21" s="10"/>
+      <c r="BE21" s="10"/>
+      <c r="BF21" s="10"/>
+    </row>
+    <row r="22" spans="1:58" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
         <v>16</v>
       </c>
@@ -1595,8 +2496,56 @@
       <c r="I22" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="10"/>
+      <c r="Y22" s="10"/>
+      <c r="Z22" s="10"/>
+      <c r="AA22" s="10"/>
+      <c r="AB22" s="10"/>
+      <c r="AC22" s="10"/>
+      <c r="AD22" s="10"/>
+      <c r="AE22" s="10"/>
+      <c r="AF22" s="10"/>
+      <c r="AG22" s="10"/>
+      <c r="AH22" s="10"/>
+      <c r="AI22" s="10"/>
+      <c r="AJ22" s="10"/>
+      <c r="AK22" s="10"/>
+      <c r="AL22" s="10"/>
+      <c r="AM22" s="10"/>
+      <c r="AN22" s="10"/>
+      <c r="AO22" s="10"/>
+      <c r="AP22" s="10"/>
+      <c r="AQ22" s="10"/>
+      <c r="AR22" s="10"/>
+      <c r="AS22" s="10"/>
+      <c r="AT22" s="10"/>
+      <c r="AU22" s="10"/>
+      <c r="AV22" s="10"/>
+      <c r="AW22" s="10"/>
+      <c r="AX22" s="10"/>
+      <c r="AY22" s="10"/>
+      <c r="AZ22" s="10"/>
+      <c r="BA22" s="10"/>
+      <c r="BB22" s="10"/>
+      <c r="BC22" s="10"/>
+      <c r="BD22" s="10"/>
+      <c r="BE22" s="10"/>
+      <c r="BF22" s="10"/>
+    </row>
+    <row r="23" spans="1:58" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
       <c r="B23" s="1" t="s">
         <v>17</v>
@@ -1609,8 +2558,56 @@
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="6"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="10"/>
+      <c r="Z23" s="10"/>
+      <c r="AA23" s="10"/>
+      <c r="AB23" s="10"/>
+      <c r="AC23" s="10"/>
+      <c r="AD23" s="10"/>
+      <c r="AE23" s="10"/>
+      <c r="AF23" s="10"/>
+      <c r="AG23" s="10"/>
+      <c r="AH23" s="10"/>
+      <c r="AI23" s="10"/>
+      <c r="AJ23" s="10"/>
+      <c r="AK23" s="10"/>
+      <c r="AL23" s="10"/>
+      <c r="AM23" s="10"/>
+      <c r="AN23" s="10"/>
+      <c r="AO23" s="10"/>
+      <c r="AP23" s="10"/>
+      <c r="AQ23" s="10"/>
+      <c r="AR23" s="10"/>
+      <c r="AS23" s="10"/>
+      <c r="AT23" s="10"/>
+      <c r="AU23" s="10"/>
+      <c r="AV23" s="10"/>
+      <c r="AW23" s="10"/>
+      <c r="AX23" s="10"/>
+      <c r="AY23" s="10"/>
+      <c r="AZ23" s="10"/>
+      <c r="BA23" s="10"/>
+      <c r="BB23" s="10"/>
+      <c r="BC23" s="10"/>
+      <c r="BD23" s="10"/>
+      <c r="BE23" s="10"/>
+      <c r="BF23" s="10"/>
+    </row>
+    <row r="24" spans="1:58" x14ac:dyDescent="0.2">
       <c r="B24" s="3" t="s">
         <v>21</v>
       </c>
@@ -1629,8 +2626,56 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
-    </row>
-    <row r="25" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="10"/>
+      <c r="Y24" s="10"/>
+      <c r="Z24" s="10"/>
+      <c r="AA24" s="10"/>
+      <c r="AB24" s="10"/>
+      <c r="AC24" s="10"/>
+      <c r="AD24" s="10"/>
+      <c r="AE24" s="10"/>
+      <c r="AF24" s="10"/>
+      <c r="AG24" s="10"/>
+      <c r="AH24" s="10"/>
+      <c r="AI24" s="10"/>
+      <c r="AJ24" s="10"/>
+      <c r="AK24" s="10"/>
+      <c r="AL24" s="10"/>
+      <c r="AM24" s="10"/>
+      <c r="AN24" s="10"/>
+      <c r="AO24" s="10"/>
+      <c r="AP24" s="10"/>
+      <c r="AQ24" s="10"/>
+      <c r="AR24" s="10"/>
+      <c r="AS24" s="10"/>
+      <c r="AT24" s="10"/>
+      <c r="AU24" s="10"/>
+      <c r="AV24" s="10"/>
+      <c r="AW24" s="10"/>
+      <c r="AX24" s="10"/>
+      <c r="AY24" s="10"/>
+      <c r="AZ24" s="10"/>
+      <c r="BA24" s="10"/>
+      <c r="BB24" s="10"/>
+      <c r="BC24" s="10"/>
+      <c r="BD24" s="10"/>
+      <c r="BE24" s="10"/>
+      <c r="BF24" s="10"/>
+    </row>
+    <row r="25" spans="1:58" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
       <c r="B25" s="1" t="s">
         <v>18</v>
@@ -1643,8 +2688,56 @@
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="6"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="10"/>
+      <c r="W25" s="10"/>
+      <c r="X25" s="10"/>
+      <c r="Y25" s="10"/>
+      <c r="Z25" s="10"/>
+      <c r="AA25" s="10"/>
+      <c r="AB25" s="10"/>
+      <c r="AC25" s="10"/>
+      <c r="AD25" s="10"/>
+      <c r="AE25" s="10"/>
+      <c r="AF25" s="10"/>
+      <c r="AG25" s="10"/>
+      <c r="AH25" s="10"/>
+      <c r="AI25" s="10"/>
+      <c r="AJ25" s="10"/>
+      <c r="AK25" s="10"/>
+      <c r="AL25" s="10"/>
+      <c r="AM25" s="10"/>
+      <c r="AN25" s="10"/>
+      <c r="AO25" s="10"/>
+      <c r="AP25" s="10"/>
+      <c r="AQ25" s="10"/>
+      <c r="AR25" s="10"/>
+      <c r="AS25" s="10"/>
+      <c r="AT25" s="10"/>
+      <c r="AU25" s="10"/>
+      <c r="AV25" s="10"/>
+      <c r="AW25" s="10"/>
+      <c r="AX25" s="10"/>
+      <c r="AY25" s="10"/>
+      <c r="AZ25" s="10"/>
+      <c r="BA25" s="10"/>
+      <c r="BB25" s="10"/>
+      <c r="BC25" s="10"/>
+      <c r="BD25" s="10"/>
+      <c r="BE25" s="10"/>
+      <c r="BF25" s="10"/>
+    </row>
+    <row r="26" spans="1:58" x14ac:dyDescent="0.2">
       <c r="B26" s="3" t="s">
         <v>22</v>
       </c>
@@ -1664,7 +2757,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:58" x14ac:dyDescent="0.2">
       <c r="B27" s="3" t="s">
         <v>23</v>
       </c>
@@ -1684,7 +2777,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:58" x14ac:dyDescent="0.2">
       <c r="C29" s="9" t="s">
         <v>25</v>
       </c>
